--- a/data_selection/result/地区生产总值-中山-解释变量v1-先行v1.xlsx
+++ b/data_selection/result/地区生产总值-中山-解释变量v1-先行v1.xlsx
@@ -738,32 +738,32 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>工业销售产值+EX_ST_55_ZYCS</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>大型企业+EX_ST_55_ZYCS</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>股份制企业+EX_ST_55_ZYCS</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>按税种分-海关代征税+EX_ST_53_SS</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>货运量+万吨+EX_ST_58_JTYD</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>股份制企业+EX_ST_55_ZYCS</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>工业用电累计增长+EX_ST_30_QSHYD</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>工业销售产值+EX_ST_55_ZYCS</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
         <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -819,18 +819,18 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H3" t="n">
         <v>5.7</v>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
+      <c r="I3" t="n">
         <v>14.3</v>
       </c>
-      <c r="K3" t="n">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
         <v>4.8</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.3</v>
       </c>
     </row>
     <row r="4">
@@ -845,18 +845,18 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
+        <v>5.0683544304</v>
+      </c>
+      <c r="H4" t="n">
         <v>7.7</v>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
+      <c r="I4" t="n">
         <v>12.5734177215</v>
       </c>
-      <c r="K4" t="n">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
         <v>2.2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.0683544304</v>
       </c>
     </row>
     <row r="5">
@@ -873,18 +873,18 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
         <v>6.4</v>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
+      <c r="I5" t="n">
         <v>11.1</v>
       </c>
-      <c r="K5" t="n">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
         <v>3.1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -903,18 +903,18 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H6" t="n">
         <v>6.4</v>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
+      <c r="I6" t="n">
         <v>10.7</v>
       </c>
-      <c r="K6" t="n">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
         <v>4.1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5.3</v>
       </c>
     </row>
     <row r="7">
@@ -937,22 +937,22 @@
         <v>-22.8454512291</v>
       </c>
       <c r="G7" t="n">
+        <v>8.6392405063</v>
+      </c>
+      <c r="H7" t="n">
         <v>9.2088607595</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
+        <v>7.7848101266</v>
+      </c>
+      <c r="J7" t="n">
         <v>14.8292188028</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>-2.6497384051</v>
       </c>
-      <c r="J7" t="n">
-        <v>7.7848101266</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>10.5104041462</v>
-      </c>
-      <c r="L7" t="n">
-        <v>8.6392405063</v>
       </c>
     </row>
     <row r="8">
@@ -977,22 +977,22 @@
         <v>-8.4361540246</v>
       </c>
       <c r="G8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H8" t="n">
         <v>8.959487534600001</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
+        <v>8.7647160665</v>
+      </c>
+      <c r="J8" t="n">
         <v>19.7832077228</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>-4.2461807664</v>
       </c>
-      <c r="J8" t="n">
-        <v>8.7647160665</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>9.169067168</v>
-      </c>
-      <c r="L8" t="n">
-        <v>9.4</v>
       </c>
     </row>
     <row r="9">
@@ -1017,22 +1017,22 @@
         <v>0.1964635716</v>
       </c>
       <c r="G9" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="H9" t="n">
         <v>9.155844155800001</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
+        <v>8.8636363636</v>
+      </c>
+      <c r="J9" t="n">
         <v>21.8960462721</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>-5.6172136209</v>
       </c>
-      <c r="J9" t="n">
-        <v>8.8636363636</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>9.547923815900001</v>
-      </c>
-      <c r="L9" t="n">
-        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1057,22 +1057,22 @@
         <v>-29.0801696921</v>
       </c>
       <c r="G10" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H10" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
         <v>18.9002899039</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>-3.7051569144</v>
       </c>
-      <c r="J10" t="n">
-        <v>3</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>7.9783130841</v>
-      </c>
-      <c r="L10" t="n">
-        <v>6.3</v>
       </c>
     </row>
     <row r="11">
@@ -1097,22 +1097,22 @@
         <v>189.3</v>
       </c>
       <c r="G11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H11" t="n">
         <v>2.1</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J11" t="n">
         <v>17.0061682946383</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>3.59218272308514</v>
       </c>
-      <c r="J11" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>4.6758685801</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.5</v>
       </c>
     </row>
     <row r="12">
@@ -1137,22 +1137,22 @@
         <v>143.8</v>
       </c>
       <c r="G12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H12" t="n">
         <v>6.4</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="J12" t="n">
         <v>7.489335770871429</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>-8.43635059795214</v>
       </c>
-      <c r="J12" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>6.2</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.5</v>
       </c>
     </row>
     <row r="13">
@@ -1177,22 +1177,22 @@
         <v>72.7</v>
       </c>
       <c r="G13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H13" t="n">
         <v>9.5</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J13" t="n">
         <v>-0.8</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>-5.26390983515354</v>
       </c>
-      <c r="J13" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>4.3068260112</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.9</v>
       </c>
     </row>
     <row r="14">
@@ -1217,22 +1217,22 @@
         <v>62.3</v>
       </c>
       <c r="G14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H14" t="n">
         <v>8.1</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" t="n">
         <v>-6.5</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>-5.756351703489321</v>
       </c>
-      <c r="J14" t="n">
-        <v>6</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>4.130407895299999</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.4</v>
       </c>
     </row>
     <row r="15">
@@ -1257,22 +1257,22 @@
         <v>23.1</v>
       </c>
       <c r="G15" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H15" t="n">
         <v>-0.282352941176471</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
+        <v>9.03529411764706</v>
+      </c>
+      <c r="J15" t="n">
         <v>2.30167941493155</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>-20.495581243508</v>
       </c>
-      <c r="J15" t="n">
-        <v>9.03529411764706</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>4.0103365511</v>
-      </c>
-      <c r="L15" t="n">
-        <v>5.3</v>
       </c>
     </row>
     <row r="16">
@@ -1297,22 +1297,22 @@
         <v>9.4</v>
       </c>
       <c r="G16" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="H16" t="n">
         <v>-1.12</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="J16" t="n">
         <v>-10.4930835081354</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>-21.0865337903781</v>
       </c>
-      <c r="J16" t="n">
-        <v>-0.32</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>1.6883986243</v>
-      </c>
-      <c r="L16" t="n">
-        <v>-0.7</v>
       </c>
     </row>
     <row r="17">
@@ -1337,22 +1337,22 @@
         <v>15.4</v>
       </c>
       <c r="G17" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.5</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J17" t="n">
         <v>-11.7</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>-27.5262454367667</v>
       </c>
-      <c r="J17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>2.3057043359</v>
-      </c>
-      <c r="L17" t="n">
-        <v>-0.2</v>
       </c>
     </row>
     <row r="18">
@@ -1377,22 +1377,22 @@
         <v>0.8</v>
       </c>
       <c r="G18" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="H18" t="n">
         <v>-0.8</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J18" t="n">
         <v>-9.4</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>-30.7160699519731</v>
       </c>
-      <c r="J18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>3.2722226516</v>
-      </c>
-      <c r="L18" t="n">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="19">
@@ -1417,22 +1417,22 @@
         <v>-10</v>
       </c>
       <c r="G19" t="n">
+        <v>-26.5</v>
+      </c>
+      <c r="H19" t="n">
         <v>-22.4</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
+        <v>-25.4</v>
+      </c>
+      <c r="J19" t="n">
         <v>-41.9</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19" t="n">
         <v>-40.3194728030394</v>
       </c>
-      <c r="J19" t="n">
-        <v>-25.4</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>-20.3815217801</v>
-      </c>
-      <c r="L19" t="n">
-        <v>-26.5</v>
       </c>
     </row>
     <row r="20">
@@ -1457,22 +1457,22 @@
         <v>-7.2</v>
       </c>
       <c r="G20" t="n">
+        <v>-10.6</v>
+      </c>
+      <c r="H20" t="n">
         <v>-9.1</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
+        <v>-6</v>
+      </c>
+      <c r="J20" t="n">
         <v>-22.8</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20" t="n">
         <v>-34.4223148285766</v>
       </c>
-      <c r="J20" t="n">
-        <v>-6</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>-7.6430295985</v>
-      </c>
-      <c r="L20" t="n">
-        <v>-10.6</v>
       </c>
     </row>
     <row r="21">
@@ -1495,22 +1495,22 @@
         <v>-39.8</v>
       </c>
       <c r="G21" t="n">
+        <v>-4</v>
+      </c>
+      <c r="H21" t="n">
         <v>-2.2</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J21" t="n">
         <v>-14.7</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21" t="n">
         <v>-29.0594388897689</v>
       </c>
-      <c r="J21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>-0.6550534889</v>
-      </c>
-      <c r="L21" t="n">
-        <v>-4</v>
       </c>
     </row>
     <row r="22">
@@ -1533,22 +1533,22 @@
         <v>-27.4</v>
       </c>
       <c r="G22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H22" t="n">
         <v>3.4</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="J22" t="n">
         <v>-12.9</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22" t="n">
         <v>-12.2080991666</v>
       </c>
-      <c r="J22" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>2.8210480834</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.3</v>
       </c>
     </row>
     <row r="23">
